--- a/data/input/FreightTables/Longwood_CWT_Freight_Rate_Table.xlsx
+++ b/data/input/FreightTables/Longwood_CWT_Freight_Rate_Table.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhuw\OneDrive\Desktop\10. Application Development\Diverzify\diverzify_freight_analysis\data\input\FreightTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{FF99B0CF-04CD-4329-9436-DD8BA1175BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83100D56-9A6F-4AC4-B506-331C54493743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2D4D9C96-EABA-44B4-A2B9-AEC41C758ACA}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8749BE64-94E4-46F0-94C5-C683FA3A634B}"/>
   </bookViews>
   <sheets>
@@ -18,7 +17,6 @@
     <sheet name="Example_Calculations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -199,7 +197,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -803,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -812,7 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -829,10 +826,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,10 +856,15 @@
     <xf numFmtId="43" fontId="12" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="6" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -871,12 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="6" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1257,11 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13443F1-C279-4090-B3C4-7EBBA0F42D6A}">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="1">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,116 +1262,116 @@
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>500</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>1000</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2000</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>3000</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>5000</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>10000</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>20000</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>30000</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>40000</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>499</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>999</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1999</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2999</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>4999</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>9999</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>19999</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>29999</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>39999</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1386,32 +1379,32 @@
       <c r="B6">
         <v>50</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>18.22</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>14.13</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>11.36</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11">
+      <c r="I6" s="12"/>
+      <c r="J6" s="10">
         <v>8.81</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>7.42</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>7.42</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>7.42</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>7.42</v>
       </c>
     </row>
@@ -1419,32 +1412,32 @@
       <c r="B7">
         <v>55</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>21.51</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>19.61</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>15.21</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>12.22</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11">
+      <c r="I7" s="12"/>
+      <c r="J7" s="10">
         <v>9.49</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>7.98</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>7.98</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>7.98</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>7.98</v>
       </c>
     </row>
@@ -1458,32 +1451,32 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>23.07</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>21.05</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>16.23</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>13.06</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13">
         <v>10.06</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>8.4600000000000009</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>8.4600000000000009</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>8.4600000000000009</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>8.4600000000000009</v>
       </c>
     </row>
@@ -1491,32 +1484,32 @@
       <c r="B9">
         <v>65</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>24.07</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>21.95</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>17.02</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>13.68</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11">
+      <c r="I9" s="12"/>
+      <c r="J9" s="10">
         <v>10.62</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>8.93</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>8.93</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>8.93</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>8.93</v>
       </c>
     </row>
@@ -1530,32 +1523,32 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>25.37</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>23.19</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>18.39</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>14.41</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14">
+      <c r="I10" s="12"/>
+      <c r="J10" s="13">
         <v>11.2</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>9.3699999999999992</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>9.3699999999999992</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>9.3699999999999992</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>9.3699999999999992</v>
       </c>
     </row>
@@ -1563,32 +1556,32 @@
       <c r="B11">
         <v>77</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>26.37</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>24.08</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>19.37</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>15.67</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11">
+      <c r="I11" s="12"/>
+      <c r="J11" s="10">
         <v>12.2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>10.17</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>10.17</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>10.17</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>10.17</v>
       </c>
     </row>
@@ -1596,32 +1589,32 @@
       <c r="B12">
         <v>82</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>27.68</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>25.3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>20.86</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>16.82</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11">
+      <c r="I12" s="12"/>
+      <c r="J12" s="10">
         <v>13.22</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>11.02</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>11.02</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>11.02</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>11.02</v>
       </c>
     </row>
@@ -1629,32 +1622,32 @@
       <c r="B13">
         <v>92</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>31.96</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>29.24</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>24.26</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>19.41</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11">
+      <c r="I13" s="12"/>
+      <c r="J13" s="10">
         <v>15.25</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>12.81</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>12.81</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>12.81</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>12.81</v>
       </c>
     </row>
@@ -1662,32 +1655,32 @@
       <c r="B14">
         <v>100</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>34.24</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>31.2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>26.14</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>20.93</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11">
+      <c r="I14" s="12"/>
+      <c r="J14" s="10">
         <v>16.38</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>13.71</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>13.71</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>13.71</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>13.71</v>
       </c>
     </row>
@@ -1695,32 +1688,32 @@
       <c r="B15">
         <v>110</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>37.29</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>34</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>28.37</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>21.19</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11">
+      <c r="I15" s="12"/>
+      <c r="J15" s="10">
         <v>16.600000000000001</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>13.18</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>13.18</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>13.18</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>13.18</v>
       </c>
     </row>
@@ -1728,32 +1721,32 @@
       <c r="B16">
         <v>125</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>42.11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>38.29</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>31.78</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>25.13</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="11">
+      <c r="I16" s="12"/>
+      <c r="J16" s="10">
         <v>19.5</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>15</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>15</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>15</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>15</v>
       </c>
     </row>
@@ -1765,32 +1758,32 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>50.23</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>45.79</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>35.51</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>28.56</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14">
+      <c r="I17" s="12"/>
+      <c r="J17" s="13">
         <v>22.37</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>18.57</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>18.57</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>18.57</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>18.57</v>
       </c>
     </row>
@@ -1798,32 +1791,32 @@
       <c r="B18">
         <v>200</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>58.34</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>53.19</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>41.37</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>33.11</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11">
+      <c r="I18" s="12"/>
+      <c r="J18" s="10">
         <v>25.71</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>21.75</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>21.75</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>21.75</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <v>21.75</v>
       </c>
     </row>
@@ -1831,32 +1824,32 @@
       <c r="B19">
         <v>250</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>65.28</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>59.53</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>46.22</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>36.94</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11">
+      <c r="I19" s="12"/>
+      <c r="J19" s="10">
         <v>29.01</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>24.56</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>24.56</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>24.56</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>24.56</v>
       </c>
     </row>
@@ -1864,32 +1857,32 @@
       <c r="B20">
         <v>300</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>72.06</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>65.72</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>50.91</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>40.67</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11">
+      <c r="I20" s="12"/>
+      <c r="J20" s="10">
         <v>32.15</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>26.94</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>26.94</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>26.94</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>26.94</v>
       </c>
     </row>
@@ -1897,32 +1890,32 @@
       <c r="B21">
         <v>400</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>90.41</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>82.51</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>63.08</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>50.62</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="11">
+      <c r="I21" s="12"/>
+      <c r="J21" s="10">
         <v>41.91</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>32.04</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>32.04</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>32.04</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <v>32.04</v>
       </c>
     </row>
@@ -1930,32 +1923,32 @@
       <c r="B22">
         <v>500</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>164.13</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>149.63</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>116.05</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>93.25</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11">
+      <c r="I22" s="12"/>
+      <c r="J22" s="10">
         <v>73.08</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>51.78</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>51.78</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>51.78</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <v>51.78</v>
       </c>
     </row>
@@ -1963,107 +1956,107 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>500</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>1000</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>2000</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>3000</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>5000</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>10000</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>20000</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>30000</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>40000</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>499</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>999</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>1999</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>2999</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>4999</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>9999</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>19999</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>29999</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>39999</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2071,51 +2064,51 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0.4521</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>0.44119999999999998</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>0.43390000000000001</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>0.42670000000000002</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>0.40860000000000002</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>0.76849999999999996</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>0.75</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>0.73770000000000002</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>0.72540000000000004</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>0.6946</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,10 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148F4A7-23B3-4725-B83C-642C9D2B6DF6}">
   <dimension ref="A2:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2170,77 +2160,77 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="N4" s="18" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="R4" s="18" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="R4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
-      <c r="V4" s="18" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="V4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="20"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>35781</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>28526</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>29279</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>31115</v>
       </c>
       <c r="P5" s="5"/>
       <c r="R5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <v>33868</v>
       </c>
       <c r="T5" s="5"/>
       <c r="V5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="21">
         <v>67402</v>
       </c>
       <c r="X5" s="5"/>
@@ -2249,42 +2239,42 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="P6" s="5"/>
       <c r="R6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="T6" s="5"/>
       <c r="V6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="X6" s="5"/>
@@ -2293,42 +2283,42 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>136</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>370.16</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>10</v>
       </c>
       <c r="L7" s="5"/>
       <c r="N7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>872.28</v>
       </c>
       <c r="P7" s="5"/>
       <c r="R7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="22">
         <v>6255</v>
       </c>
       <c r="T7" s="5"/>
       <c r="V7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="22">
         <v>1050.3800000000001</v>
       </c>
       <c r="X7" s="5"/>
@@ -2337,42 +2327,42 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="5"/>
       <c r="N8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="5"/>
       <c r="R8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="T8" s="5"/>
       <c r="V8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="X8" s="5"/>
@@ -2381,153 +2371,153 @@
       <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>1046.08</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>321.64</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>79.84</v>
       </c>
       <c r="L9" s="5"/>
       <c r="N9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>100</v>
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="22">
         <v>155.65</v>
       </c>
       <c r="T9" s="5"/>
       <c r="V9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="22">
         <v>117</v>
       </c>
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="5"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="5"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="5"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="15"/>
+      <c r="W10" s="14"/>
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="18" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="20"/>
-      <c r="N11" s="18" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="N11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="20"/>
-      <c r="R11" s="18" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="19"/>
+      <c r="R11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20"/>
-      <c r="V11" s="18" t="s">
+      <c r="S11" s="20"/>
+      <c r="T11" s="19"/>
+      <c r="V11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>IF(C8="SF",C7/9,0)</f>
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>IF(G8="SF",G7/9,0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f>IF(K8="SF",K7/9,0)</f>
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="14">
         <f>IF(O8="SF",O7/9,0)</f>
         <v>96.92</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="14">
         <f>IF(S8="SF",S7/9,0)</f>
         <v>695</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V12" s="28" t="s">
+      <c r="V12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="14">
         <f>IF(W8="SF",W7/9,0)</f>
         <v>116.70888888888891</v>
       </c>
@@ -2539,42 +2529,42 @@
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="5"/>
       <c r="J13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="5"/>
       <c r="N13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="5"/>
       <c r="R13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="14" t="s">
         <v>1</v>
       </c>
       <c r="T13" s="5"/>
       <c r="V13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="X13" s="5"/>
@@ -2583,42 +2573,42 @@
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>0.76849999999999996</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>0.76849999999999996</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>0.76849999999999996</v>
       </c>
       <c r="L14" s="5"/>
       <c r="N14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <v>0.76849999999999996</v>
       </c>
       <c r="P14" s="5"/>
       <c r="R14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="23">
         <v>0.75</v>
       </c>
       <c r="T14" s="5"/>
       <c r="V14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="23">
         <v>0.76849999999999996</v>
       </c>
       <c r="X14" s="5"/>
@@ -2627,7 +2617,7 @@
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f>C14*C7</f>
         <v>104.51599999999999</v>
       </c>
@@ -2635,7 +2625,7 @@
       <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f>G14*G7</f>
         <v>284.46796000000001</v>
       </c>
@@ -2643,7 +2633,7 @@
       <c r="J15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <f>K14*K7</f>
         <v>7.6849999999999996</v>
       </c>
@@ -2651,7 +2641,7 @@
       <c r="N15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <f>O14*O12</f>
         <v>74.483019999999996</v>
       </c>
@@ -2659,7 +2649,7 @@
       <c r="R15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="25">
         <f>S14*S12</f>
         <v>521.25</v>
       </c>
@@ -2667,7 +2657,7 @@
       <c r="V15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="25">
         <f>W14*W12</f>
         <v>89.690781111111122</v>
       </c>
@@ -2675,61 +2665,61 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="5"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="5"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="5"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="17"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="5"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="17"/>
+      <c r="W16" s="16"/>
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="F17" s="18" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="J17" s="18" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="J17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20"/>
-      <c r="N17" s="18" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="20"/>
-      <c r="R17" s="18" t="s">
+      <c r="O17" s="20"/>
+      <c r="P17" s="19"/>
+      <c r="R17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20"/>
-      <c r="V17" s="18" t="s">
+      <c r="S17" s="20"/>
+      <c r="T17" s="19"/>
+      <c r="V17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>3.7124999999999999</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2738,7 +2728,7 @@
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>3.7124999999999999</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2747,7 +2737,7 @@
       <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>3.7124999999999999</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2756,7 +2746,7 @@
       <c r="N18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="24">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -2765,7 +2755,7 @@
       <c r="R18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="24">
         <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
@@ -2774,7 +2764,7 @@
       <c r="V18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="25">
+      <c r="W18" s="24">
         <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
@@ -2785,7 +2775,7 @@
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <f>C18*C7</f>
         <v>504.9</v>
       </c>
@@ -2795,7 +2785,7 @@
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <f>G18*G7</f>
         <v>1374.2190000000001</v>
       </c>
@@ -2805,7 +2795,7 @@
       <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <f>K18*K7</f>
         <v>37.125</v>
       </c>
@@ -2815,7 +2805,7 @@
       <c r="N19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <f>O18*O7</f>
         <v>0</v>
       </c>
@@ -2825,7 +2815,7 @@
       <c r="R19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="26">
         <f>S18*S7</f>
         <v>0</v>
       </c>
@@ -2835,7 +2825,7 @@
       <c r="V19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="27">
+      <c r="W19" s="26">
         <f>W18*W7</f>
         <v>0</v>
       </c>
@@ -2847,45 +2837,45 @@
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="5"/>
       <c r="J20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="5"/>
       <c r="N20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="16"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="5"/>
       <c r="R20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="5"/>
       <c r="V20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="16"/>
+      <c r="W20" s="15"/>
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>C19/100</f>
         <v>5.0489999999999995</v>
       </c>
@@ -2895,7 +2885,7 @@
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <f>G19/100</f>
         <v>13.742190000000001</v>
       </c>
@@ -2905,7 +2895,7 @@
       <c r="J21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="26">
         <f>K19/100</f>
         <v>0.37125000000000002</v>
       </c>
@@ -2915,7 +2905,7 @@
       <c r="N21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="26">
         <f>O19/100</f>
         <v>0</v>
       </c>
@@ -2925,7 +2915,7 @@
       <c r="R21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="26">
         <f>S19/100</f>
         <v>0</v>
       </c>
@@ -2935,7 +2925,7 @@
       <c r="V21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="27">
+      <c r="W21" s="26">
         <f>W19/100</f>
         <v>0</v>
       </c>
@@ -2947,7 +2937,7 @@
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>23.19</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2956,7 +2946,7 @@
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>18.39</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -2965,7 +2955,7 @@
       <c r="J22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>25.37</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -2974,7 +2964,7 @@
       <c r="N22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="22">
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -2983,7 +2973,7 @@
       <c r="R22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="22">
         <v>0</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -2992,7 +2982,7 @@
       <c r="V22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="22">
         <v>0</v>
       </c>
       <c r="X22" s="5" t="s">
@@ -3003,7 +2993,7 @@
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <f>C21*C22</f>
         <v>117.08631</v>
       </c>
@@ -3011,7 +3001,7 @@
       <c r="F23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="27">
         <f>G21*G22</f>
         <v>252.71887410000002</v>
       </c>
@@ -3019,7 +3009,7 @@
       <c r="J23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="27">
         <f>K21*K22</f>
         <v>9.4186125000000018</v>
       </c>
@@ -3027,7 +3017,7 @@
       <c r="N23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="27">
         <f>O21*O22</f>
         <v>0</v>
       </c>
@@ -3035,7 +3025,7 @@
       <c r="R23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="32">
+      <c r="S23" s="27">
         <f>S21*S22</f>
         <v>0</v>
       </c>
@@ -3043,19 +3033,17 @@
       <c r="V23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W23" s="32">
+      <c r="W23" s="27">
         <f>W21*W22</f>
         <v>0</v>
       </c>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:24" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -3086,18 +3074,16 @@
       <c r="X25" s="31"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V25:X25"/>
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="V25:X25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
